--- a/api/org-data/suggest/미래에셋 추천 포트폴리오.xlsx
+++ b/api/org-data/suggest/미래에셋 추천 포트폴리오.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\금융공학운용부문\J\김효정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyojeong_kim\PycharmProjects\web-portfolio\api\org-data\suggest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="적극투자형" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,13 +212,17 @@
   <si>
     <t>TIGER 투자등급회사채액티브</t>
   </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -292,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,7 +591,7 @@
     <col min="3" max="3" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,8 +604,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -614,8 +621,11 @@
       <c r="D2" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>400760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -628,8 +638,11 @@
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>396690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -642,8 +655,11 @@
       <c r="D4" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>319640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -656,8 +672,11 @@
       <c r="D5" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>139310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -670,8 +689,11 @@
       <c r="D6" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -684,8 +706,11 @@
       <c r="D7" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>51910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -698,8 +723,11 @@
       <c r="D8" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -712,8 +740,11 @@
       <c r="D9" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>35420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -726,8 +757,11 @@
       <c r="D10" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>247540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -740,8 +774,11 @@
       <c r="D11" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -754,8 +791,11 @@
       <c r="D12" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>112610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -768,8 +808,11 @@
       <c r="D13" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -782,8 +825,11 @@
       <c r="D14" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -796,8 +842,11 @@
       <c r="D15" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>67160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -810,8 +859,11 @@
       <c r="D16" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>396500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -824,8 +876,11 @@
       <c r="D17" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>364980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -838,8 +893,11 @@
       <c r="D18" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>150460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -851,6 +909,9 @@
       </c>
       <c r="D19" s="1">
         <v>0.3</v>
+      </c>
+      <c r="E19">
+        <v>438330</v>
       </c>
     </row>
   </sheetData>
@@ -862,21 +923,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,8 +950,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -903,8 +967,11 @@
       <c r="D2" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>400760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -917,8 +984,11 @@
       <c r="D3" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>396690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -931,8 +1001,11 @@
       <c r="D4" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>319640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -945,8 +1018,11 @@
       <c r="D5" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>139310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -959,8 +1035,11 @@
       <c r="D6" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -968,13 +1047,16 @@
         <v>0.2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>51910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -982,13 +1064,16 @@
         <v>0.2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -996,13 +1081,16 @@
         <v>0.2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>35420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1010,13 +1098,16 @@
         <v>0.2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>247540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1024,13 +1115,16 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1038,13 +1132,16 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>112610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1052,13 +1149,16 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1066,27 +1166,33 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>0.2</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>67160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1099,8 +1205,11 @@
       <c r="D16" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>396500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1113,8 +1222,11 @@
       <c r="D17" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>364980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1239,11 @@
       <c r="D18" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>150460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1140,6 +1255,9 @@
       </c>
       <c r="D19" s="1">
         <v>0.53</v>
+      </c>
+      <c r="E19">
+        <v>438330</v>
       </c>
     </row>
   </sheetData>
@@ -1151,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1282,7 @@
     <col min="3" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,8 +1295,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1191,8 +1312,11 @@
       <c r="D2" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>400760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1205,8 +1329,11 @@
       <c r="D3" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>396690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1219,8 +1346,11 @@
       <c r="D4" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>319640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1233,8 +1363,11 @@
       <c r="D5" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>139310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1247,8 +1380,11 @@
       <c r="D6" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1256,13 +1392,16 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>51910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1270,13 +1409,16 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1284,13 +1426,16 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>35420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1298,13 +1443,16 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>247540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1312,13 +1460,16 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1326,13 +1477,16 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>112610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1340,13 +1494,16 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1354,27 +1511,33 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>0.1</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>67160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1387,8 +1550,11 @@
       <c r="D16" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>396500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1401,8 +1567,11 @@
       <c r="D17" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>364980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1415,8 +1584,11 @@
       <c r="D18" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>150460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1428,6 +1600,9 @@
       </c>
       <c r="D19" s="1">
         <v>0.74</v>
+      </c>
+      <c r="E19">
+        <v>438330</v>
       </c>
     </row>
   </sheetData>
